--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
@@ -5,14 +5,14 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Desktop/spawning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-oyster-oa/data/2017-07-30-pacific-oyster-larvae/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="morning-concentrations" sheetId="8" r:id="rId1"/>
+    <sheet name="pre-feeding-concentrations" sheetId="8" r:id="rId1"/>
     <sheet name="algae-added" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Notes</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Volume added to buckets topped over 15000 mL. Need to feed before getting buckets to the correct volume.</t>
+  </si>
+  <si>
+    <t>Took this first thing in the morning, but I fed before I left yesterday. I'll feed in the afternoon today as well and start only feeding before I leave. I will need to start measuring food presence right before feeding in the afternoon.</t>
+  </si>
+  <si>
+    <t>500 mL Ciso, 500 mL Chagra</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +748,50 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>42949</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(C4,D4,E4,F4,G4)</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I4" s="3">
+        <f>(H4*9)/0.0009</f>
+        <v>358000</v>
+      </c>
+      <c r="J4" s="3">
+        <f>15000*I4</f>
+        <v>5370000000</v>
+      </c>
+      <c r="K4" s="3">
+        <f>15000*50000</f>
+        <v>750000000</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4-J4</f>
+        <v>-4620000000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -758,7 +807,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,6 +1028,56 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>110</v>
+      </c>
+      <c r="F5">
+        <v>95</v>
+      </c>
+      <c r="G5">
+        <v>130</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(C5:G5)</f>
+        <v>112.2</v>
+      </c>
+      <c r="I5">
+        <f>(H5*9)/0.0009</f>
+        <v>1122000</v>
+      </c>
+      <c r="J5">
+        <f>15000*50000</f>
+        <v>750000000</v>
+      </c>
+      <c r="K5">
+        <f>J5/I5</f>
+        <v>668.44919786096261</v>
+      </c>
+      <c r="L5">
+        <v>700</v>
+      </c>
+      <c r="M5">
+        <f>L5*I5</f>
+        <v>785400000</v>
+      </c>
+      <c r="N5">
+        <f>M5/15000</f>
+        <v>52360</v>
+      </c>
+    </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J12" s="4"/>
     </row>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Notes</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>500 mL Ciso, 500 mL Chagra</t>
+  </si>
+  <si>
+    <t>Extremely dense, most likely undercounting</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1078,6 +1081,53 @@
         <v>52360</v>
       </c>
     </row>
+    <row r="6" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>42950</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>143</v>
+      </c>
+      <c r="D6">
+        <v>198</v>
+      </c>
+      <c r="E6">
+        <v>165</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(C6:G6)</f>
+        <v>168.66666666666666</v>
+      </c>
+      <c r="I6">
+        <f>(H6*9)/0.0009</f>
+        <v>1686666.6666666667</v>
+      </c>
+      <c r="J6">
+        <f>15000*50000</f>
+        <v>750000000</v>
+      </c>
+      <c r="K6">
+        <f>J6/I6</f>
+        <v>444.66403162055332</v>
+      </c>
+      <c r="L6">
+        <v>450</v>
+      </c>
+      <c r="M6">
+        <f>L6*I6</f>
+        <v>759000000</v>
+      </c>
+      <c r="N6">
+        <f>M6/15000</f>
+        <v>50600</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J12" s="4"/>
     </row>

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Notes</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Extremely dense, most likely undercounting</t>
+  </si>
+  <si>
+    <t>500 mL Ciso, 250 609, 250 Chagra</t>
+  </si>
+  <si>
+    <t>Extremely dense, most likely undercounting. 15 and 16 accidentally fed 400 mL mix + 100 Chagra + 100 609</t>
   </si>
 </sst>
 </file>
@@ -809,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,6 +1103,12 @@
       <c r="E6">
         <v>165</v>
       </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
       <c r="H6">
         <f>AVERAGE(C6:G6)</f>
         <v>168.66666666666666</v>
@@ -1114,18 +1126,71 @@
         <v>444.66403162055332</v>
       </c>
       <c r="L6">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M6">
         <f>L6*I6</f>
-        <v>759000000</v>
+        <v>843333333.33333337</v>
       </c>
       <c r="N6">
         <f>M6/15000</f>
-        <v>50600</v>
+        <v>56222.222222222226</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>243</v>
+      </c>
+      <c r="D7">
+        <v>231</v>
+      </c>
+      <c r="E7">
+        <v>131</v>
+      </c>
+      <c r="F7">
+        <v>268</v>
+      </c>
+      <c r="G7">
+        <v>159</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(C7:G7)</f>
+        <v>206.4</v>
+      </c>
+      <c r="I7">
+        <f>(H7*9)/0.0009</f>
+        <v>2064000.0000000002</v>
+      </c>
+      <c r="J7">
+        <f>15000*50000</f>
+        <v>750000000</v>
+      </c>
+      <c r="K7">
+        <f>J7/I7</f>
+        <v>363.37209302325579</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <f>L7*I7</f>
+        <v>825600000.00000012</v>
+      </c>
+      <c r="N7">
+        <f>M7/15000</f>
+        <v>55040.000000000007</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Notes</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Extremely dense, most likely undercounting. 15 and 16 accidentally fed 400 mL mix + 100 Chagra + 100 609</t>
+  </si>
+  <si>
+    <t>400 mL Ciso, 200 609, 200 Chagra</t>
+  </si>
+  <si>
+    <t>250 mL Ciso, 150 609, 150 Chagra. Concentration must likely an overestimate</t>
   </si>
 </sst>
 </file>
@@ -815,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,26 +911,26 @@
         <v>146</v>
       </c>
       <c r="I2">
-        <f>(H2*9)/0.0009</f>
+        <f t="shared" ref="I2:I8" si="0">(H2*9)/0.0009</f>
         <v>1460000</v>
       </c>
       <c r="J2">
-        <f>15000*50000</f>
+        <f t="shared" ref="J2:J8" si="1">15000*50000</f>
         <v>750000000</v>
       </c>
       <c r="K2">
-        <f>J2/I2</f>
+        <f t="shared" ref="K2:K8" si="2">J2/I2</f>
         <v>513.69863013698625</v>
       </c>
       <c r="L2">
         <v>60</v>
       </c>
       <c r="M2">
-        <f>L2*I2</f>
+        <f t="shared" ref="M2:M8" si="3">L2*I2</f>
         <v>87600000</v>
       </c>
       <c r="N2">
-        <f>M2/15000</f>
+        <f t="shared" ref="N2:N8" si="4">M2/15000</f>
         <v>5840</v>
       </c>
       <c r="O2" t="s">
@@ -958,26 +964,26 @@
         <v>129.6</v>
       </c>
       <c r="I3">
-        <f>(H3*9)/0.0009</f>
+        <f t="shared" si="0"/>
         <v>1296000</v>
       </c>
       <c r="J3">
-        <f>15000*50000</f>
+        <f t="shared" si="1"/>
         <v>750000000</v>
       </c>
       <c r="K3">
-        <f>J3/I3</f>
+        <f t="shared" si="2"/>
         <v>578.7037037037037</v>
       </c>
       <c r="L3">
         <v>700</v>
       </c>
       <c r="M3">
-        <f>L3*I3</f>
+        <f t="shared" si="3"/>
         <v>907200000</v>
       </c>
       <c r="N3">
-        <f>M3/15000</f>
+        <f t="shared" si="4"/>
         <v>60480</v>
       </c>
       <c r="O3" t="s">
@@ -1011,26 +1017,26 @@
         <v>41.2</v>
       </c>
       <c r="I4">
-        <f>(H4*9)/0.0009</f>
+        <f t="shared" si="0"/>
         <v>412000</v>
       </c>
       <c r="J4">
-        <f>15000*50000</f>
+        <f t="shared" si="1"/>
         <v>750000000</v>
       </c>
       <c r="K4">
-        <f>J4/I4</f>
+        <f t="shared" si="2"/>
         <v>1820.3883495145631</v>
       </c>
       <c r="L4">
         <v>2100</v>
       </c>
       <c r="M4">
-        <f>L4*I4</f>
+        <f t="shared" si="3"/>
         <v>865200000</v>
       </c>
       <c r="N4">
-        <f>M4/15000</f>
+        <f t="shared" si="4"/>
         <v>57680</v>
       </c>
       <c r="O4" t="s">
@@ -1064,26 +1070,26 @@
         <v>112.2</v>
       </c>
       <c r="I5">
-        <f>(H5*9)/0.0009</f>
+        <f t="shared" si="0"/>
         <v>1122000</v>
       </c>
       <c r="J5">
-        <f>15000*50000</f>
+        <f t="shared" si="1"/>
         <v>750000000</v>
       </c>
       <c r="K5">
-        <f>J5/I5</f>
+        <f t="shared" si="2"/>
         <v>668.44919786096261</v>
       </c>
       <c r="L5">
         <v>700</v>
       </c>
       <c r="M5">
-        <f>L5*I5</f>
+        <f t="shared" si="3"/>
         <v>785400000</v>
       </c>
       <c r="N5">
-        <f>M5/15000</f>
+        <f t="shared" si="4"/>
         <v>52360</v>
       </c>
     </row>
@@ -1114,26 +1120,26 @@
         <v>168.66666666666666</v>
       </c>
       <c r="I6">
-        <f>(H6*9)/0.0009</f>
+        <f t="shared" si="0"/>
         <v>1686666.6666666667</v>
       </c>
       <c r="J6">
-        <f>15000*50000</f>
+        <f t="shared" si="1"/>
         <v>750000000</v>
       </c>
       <c r="K6">
-        <f>J6/I6</f>
+        <f t="shared" si="2"/>
         <v>444.66403162055332</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6">
-        <f>L6*I6</f>
+        <f t="shared" si="3"/>
         <v>843333333.33333337</v>
       </c>
       <c r="N6">
-        <f>M6/15000</f>
+        <f t="shared" si="4"/>
         <v>56222.222222222226</v>
       </c>
       <c r="O6" t="s">
@@ -1167,30 +1173,83 @@
         <v>206.4</v>
       </c>
       <c r="I7">
-        <f>(H7*9)/0.0009</f>
+        <f t="shared" si="0"/>
         <v>2064000.0000000002</v>
       </c>
       <c r="J7">
-        <f>15000*50000</f>
+        <f t="shared" si="1"/>
         <v>750000000</v>
       </c>
       <c r="K7">
-        <f>J7/I7</f>
+        <f t="shared" si="2"/>
         <v>363.37209302325579</v>
       </c>
       <c r="L7">
         <v>400</v>
       </c>
       <c r="M7">
-        <f>L7*I7</f>
+        <f t="shared" si="3"/>
         <v>825600000.00000012</v>
       </c>
       <c r="N7">
-        <f>M7/15000</f>
+        <f t="shared" si="4"/>
         <v>55040.000000000007</v>
       </c>
       <c r="O7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>42952</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>195</v>
+      </c>
+      <c r="D8">
+        <v>215</v>
+      </c>
+      <c r="E8">
+        <v>290</v>
+      </c>
+      <c r="F8">
+        <v>216</v>
+      </c>
+      <c r="G8">
+        <v>238</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(C8:G8)</f>
+        <v>230.8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2308000.0000000005</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>750000000</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>324.95667244367411</v>
+      </c>
+      <c r="L8">
+        <v>550</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1269400000.0000002</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>84626.666666666686</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Notes</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>250 mL Ciso, 150 609, 150 Chagra. Concentration must likely an overestimate</t>
+  </si>
+  <si>
+    <t>250 mL Ciso, 125 609, 125 Chagra. Extremely dense, most likely undercounting</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,26 +914,26 @@
         <v>146</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I8" si="0">(H2*9)/0.0009</f>
+        <f t="shared" ref="I2:I9" si="0">(H2*9)/0.0009</f>
         <v>1460000</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J8" si="1">15000*50000</f>
+        <f t="shared" ref="J2:J9" si="1">15000*50000</f>
         <v>750000000</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K8" si="2">J2/I2</f>
+        <f t="shared" ref="K2:K9" si="2">J2/I2</f>
         <v>513.69863013698625</v>
       </c>
       <c r="L2">
         <v>60</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M8" si="3">L2*I2</f>
+        <f t="shared" ref="M2:M9" si="3">L2*I2</f>
         <v>87600000</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N8" si="4">M2/15000</f>
+        <f t="shared" ref="N2:N9" si="4">M2/15000</f>
         <v>5840</v>
       </c>
       <c r="O2" t="s">
@@ -960,7 +963,7 @@
         <v>161</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(C3:G3)</f>
+        <f t="shared" ref="H3:H9" si="5">AVERAGE(C3:G3)</f>
         <v>129.6</v>
       </c>
       <c r="I3">
@@ -1013,7 +1016,7 @@
         <v>49</v>
       </c>
       <c r="H4">
-        <f>AVERAGE(C4:G4)</f>
+        <f t="shared" si="5"/>
         <v>41.2</v>
       </c>
       <c r="I4">
@@ -1066,7 +1069,7 @@
         <v>130</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(C5:G5)</f>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="I5">
@@ -1116,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <f>AVERAGE(C6:G6)</f>
+        <f t="shared" si="5"/>
         <v>168.66666666666666</v>
       </c>
       <c r="I6">
@@ -1169,7 +1172,7 @@
         <v>159</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(C7:G7)</f>
+        <f t="shared" si="5"/>
         <v>206.4</v>
       </c>
       <c r="I7">
@@ -1222,7 +1225,7 @@
         <v>238</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(C8:G8)</f>
+        <f t="shared" si="5"/>
         <v>230.8</v>
       </c>
       <c r="I8">
@@ -1250,6 +1253,59 @@
       </c>
       <c r="O8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>252</v>
+      </c>
+      <c r="D9">
+        <v>181</v>
+      </c>
+      <c r="E9">
+        <v>197</v>
+      </c>
+      <c r="F9">
+        <v>214</v>
+      </c>
+      <c r="G9">
+        <v>221</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>213</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2130000</v>
+      </c>
+      <c r="J9">
+        <f>15000*65000</f>
+        <v>975000000</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>457.74647887323943</v>
+      </c>
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>1065000000</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>71000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Notes</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>250 mL Ciso, 125 609, 125 Chagra. Extremely dense, most likely undercounting</t>
+  </si>
+  <si>
+    <t>Extremely dense. 150 mL Ciso, 75 mL 609, 75 mL Chagra</t>
   </si>
 </sst>
 </file>
@@ -824,9 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -918,7 +919,7 @@
         <v>1460000</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J9" si="1">15000*50000</f>
+        <f t="shared" ref="J2:J8" si="1">15000*50000</f>
         <v>750000000</v>
       </c>
       <c r="K2">
@@ -929,11 +930,11 @@
         <v>60</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M9" si="3">L2*I2</f>
+        <f t="shared" ref="M2:M10" si="3">L2*I2</f>
         <v>87600000</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N9" si="4">M2/15000</f>
+        <f t="shared" ref="N2:N10" si="4">M2/15000</f>
         <v>5840</v>
       </c>
       <c r="O2" t="s">
@@ -963,7 +964,7 @@
         <v>161</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="5">AVERAGE(C3:G3)</f>
+        <f t="shared" ref="H3:H10" si="5">AVERAGE(C3:G3)</f>
         <v>129.6</v>
       </c>
       <c r="I3">
@@ -1306,6 +1307,59 @@
       </c>
       <c r="O9" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>340</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10">
+        <v>320</v>
+      </c>
+      <c r="F10">
+        <v>365</v>
+      </c>
+      <c r="G10">
+        <v>299</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>336.8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10" si="6">(H10*9)/0.0009</f>
+        <v>3368000.0000000005</v>
+      </c>
+      <c r="J10">
+        <f>15000*65000</f>
+        <v>975000000</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10" si="7">J10/I10</f>
+        <v>289.48931116389542</v>
+      </c>
+      <c r="L10">
+        <v>300</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>1010400000.0000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>67360.000000000015</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">

--- a/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
+++ b/data/2017-07-30-pacific-oyster-larvae/2017-07-30-Feeding.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Notes</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>Extremely dense. 150 mL Ciso, 75 mL 609, 75 mL Chagra</t>
+  </si>
+  <si>
+    <t>300 mL Ciso, 150 mL 609, 150 mL Chagra</t>
+  </si>
+  <si>
+    <t>200 mL Ciso, 100 609, 100 Chagra. Extremely dense, most likely undercounting</t>
+  </si>
+  <si>
+    <t>Light tea green color, but no algae in hemocytometer?</t>
+  </si>
+  <si>
+    <t>Plunged, then counted</t>
+  </si>
+  <si>
+    <t>500 mL Ciso, 250 mL 609, 250 mL CGW</t>
+  </si>
+  <si>
+    <t>500 mL Ciso, 250 mL 609, 250 mL Chagra</t>
+  </si>
+  <si>
+    <t>400 mL Ciso, 400 mL Chagra</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Kelsey</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>350 mL Chagra, 350 mL C.iso</t>
   </si>
 </sst>
 </file>
@@ -238,12 +274,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -623,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,15 +742,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f>(H2*9)/0.0009</f>
+        <f t="shared" ref="I2:I7" si="0">(H2*9)/0.0009</f>
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f>15000*I2</f>
+        <f t="shared" ref="J2:J7" si="1">15000*I2</f>
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <f>15000*50000</f>
+        <f t="shared" ref="K2:K7" si="2">15000*50000</f>
         <v>750000000</v>
       </c>
       <c r="L2" s="3">
@@ -724,7 +759,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>42948</v>
       </c>
       <c r="B3" s="3">
@@ -750,15 +785,15 @@
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>(H3*9)/0.0009</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>15000*I3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f>15000*50000</f>
+        <f t="shared" si="2"/>
         <v>750000000</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -769,7 +804,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>42949</v>
       </c>
       <c r="B4">
@@ -795,15 +830,15 @@
         <v>35.799999999999997</v>
       </c>
       <c r="I4" s="3">
-        <f>(H4*9)/0.0009</f>
+        <f t="shared" si="0"/>
         <v>358000</v>
       </c>
       <c r="J4" s="3">
-        <f>15000*I4</f>
+        <f t="shared" si="1"/>
         <v>5370000000</v>
       </c>
       <c r="K4" s="3">
-        <f>15000*50000</f>
+        <f t="shared" si="2"/>
         <v>750000000</v>
       </c>
       <c r="L4" s="3">
@@ -812,6 +847,141 @@
       </c>
       <c r="M4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>AVERAGE(C5,D5,E5,F5,G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>750000000</v>
+      </c>
+      <c r="L5" s="3">
+        <f>K5-J5</f>
+        <v>750000000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <f>AVERAGE(C6,D6,E6,F6,G6)</f>
+        <v>6.6</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>990000000</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>750000000</v>
+      </c>
+      <c r="L6" s="3">
+        <f>K6-J6</f>
+        <v>-240000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
+        <f>AVERAGE(C7,D7,E7,F7,G7)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>810000000</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>750000000</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7-J7</f>
+        <v>-60000000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -825,13 +995,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -845,7 +1017,7 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -892,7 +1064,7 @@
       <c r="A2" s="2">
         <v>42946</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C2">
@@ -930,11 +1102,11 @@
         <v>60</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M10" si="3">L2*I2</f>
+        <f t="shared" ref="M2:M17" si="3">L2*I2</f>
         <v>87600000</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N10" si="4">M2/15000</f>
+        <f t="shared" ref="N2:N17" si="4">M2/15000</f>
         <v>5840</v>
       </c>
       <c r="O2" t="s">
@@ -945,7 +1117,7 @@
       <c r="A3" s="2">
         <v>42947</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3">
@@ -998,7 +1170,7 @@
       <c r="A4" s="2">
         <v>42948</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C4">
@@ -1051,7 +1223,7 @@
       <c r="A5" s="2">
         <v>42949</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5">
@@ -1101,7 +1273,7 @@
       <c r="A6" s="2">
         <v>42950</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C6">
@@ -1154,7 +1326,7 @@
       <c r="A7" s="2">
         <v>42951</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7">
@@ -1207,7 +1379,7 @@
       <c r="A8" s="2">
         <v>42952</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C8">
@@ -1260,7 +1432,7 @@
       <c r="A9" s="2">
         <v>42953</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -1313,7 +1485,7 @@
       <c r="A10" s="2">
         <v>42954</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10">
@@ -1344,7 +1516,7 @@
         <v>975000000</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10" si="7">J10/I10</f>
+        <f t="shared" ref="K10:K17" si="7">J10/I10</f>
         <v>289.48931116389542</v>
       </c>
       <c r="L10">
@@ -1362,8 +1534,482 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J12" s="4"/>
+    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>142</v>
+      </c>
+      <c r="D11">
+        <v>154</v>
+      </c>
+      <c r="E11">
+        <v>170</v>
+      </c>
+      <c r="F11">
+        <v>171</v>
+      </c>
+      <c r="G11">
+        <v>207</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H17" si="8">AVERAGE(C11:G11)</f>
+        <v>168.8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I17" si="9">(H11*9)/0.0009</f>
+        <v>1688000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J19" si="10">15000*65000</f>
+        <v>975000000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>577.60663507109007</v>
+      </c>
+      <c r="L11">
+        <v>600</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1012800000</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>67520</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>252</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>244</v>
+      </c>
+      <c r="F12">
+        <v>243</v>
+      </c>
+      <c r="G12">
+        <v>264</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
+        <v>251.6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>2516000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>387.51987281399045</v>
+      </c>
+      <c r="L12">
+        <v>400</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1006400000</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>67093.333333333328</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>42957</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>306</v>
+      </c>
+      <c r="D13">
+        <v>341</v>
+      </c>
+      <c r="E13">
+        <v>360</v>
+      </c>
+      <c r="F13">
+        <v>380</v>
+      </c>
+      <c r="G13">
+        <v>360</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>349.4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="9"/>
+        <v>3494000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>279.04979965655411</v>
+      </c>
+      <c r="L13">
+        <v>300</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1048200000</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>69880</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>306</v>
+      </c>
+      <c r="D14">
+        <v>341</v>
+      </c>
+      <c r="E14">
+        <v>370</v>
+      </c>
+      <c r="F14">
+        <v>382</v>
+      </c>
+      <c r="G14">
+        <v>363</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>352.4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>3524000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>276.67423382519866</v>
+      </c>
+      <c r="L14">
+        <v>300</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1057200000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>70480</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>42959</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>302</v>
+      </c>
+      <c r="D15">
+        <v>286</v>
+      </c>
+      <c r="E15">
+        <v>361</v>
+      </c>
+      <c r="F15">
+        <v>288</v>
+      </c>
+      <c r="G15">
+        <v>268</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>301</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>3010000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>323.92026578073092</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>1204000000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>80266.666666666672</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>42960</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>257</v>
+      </c>
+      <c r="D16">
+        <v>204</v>
+      </c>
+      <c r="E16">
+        <v>229</v>
+      </c>
+      <c r="F16">
+        <v>195</v>
+      </c>
+      <c r="G16">
+        <v>232</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>223.4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>2234000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>436.43688451208595</v>
+      </c>
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>1117000000</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>74466.666666666672</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>198</v>
+      </c>
+      <c r="D17">
+        <v>256</v>
+      </c>
+      <c r="E17">
+        <v>251</v>
+      </c>
+      <c r="F17">
+        <v>254</v>
+      </c>
+      <c r="G17">
+        <v>173</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>226.4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>2264000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>430.65371024734981</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1132000000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>75466.666666666672</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>360</v>
+      </c>
+      <c r="D18">
+        <v>366</v>
+      </c>
+      <c r="E18">
+        <v>348</v>
+      </c>
+      <c r="F18">
+        <v>362</v>
+      </c>
+      <c r="G18">
+        <v>303</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="11">AVERAGE(C18:G18)</f>
+        <v>347.8</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18" si="12">(H18*9)/0.0009</f>
+        <v>3478000.0000000005</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18" si="13">J18/I18</f>
+        <v>280.33352501437605</v>
+      </c>
+      <c r="L18">
+        <v>300</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18" si="14">L18*I18</f>
+        <v>1043400000.0000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18" si="15">M18/15000</f>
+        <v>69560.000000000015</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>114</v>
+      </c>
+      <c r="D19">
+        <v>177</v>
+      </c>
+      <c r="E19">
+        <v>114</v>
+      </c>
+      <c r="F19">
+        <v>156</v>
+      </c>
+      <c r="G19">
+        <v>149</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19" si="16">AVERAGE(C19:G19)</f>
+        <v>142</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19" si="17">(H19*9)/0.0009</f>
+        <v>1420000</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="10"/>
+        <v>975000000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19" si="18">J19/I19</f>
+        <v>686.61971830985919</v>
+      </c>
+      <c r="L19">
+        <v>700</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19" si="19">L19*I19</f>
+        <v>994000000</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19" si="20">M19/15000</f>
+        <v>66266.666666666672</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
